--- a/Reporte_Puertos.xlsx
+++ b/Reporte_Puertos.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dicofra1-my.sharepoint.com/personal/angel_liceaga_dicofra_com_mx/Documents/Documentos/Progra/CSOC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FA4F01671C5074413C7F6329EE463D6DB9B8A617" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B5B6534-27B6-4C82-9142-13C7AAFB7B5C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Reporte Computer OS" sheetId="2" r:id="rId2"/>
-    <sheet name="Reporte IPs" sheetId="3" r:id="rId3"/>
+    <sheet name="Reporte Network" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
   <si>
     <t>Time</t>
   </si>
@@ -51,137 +56,166 @@
     <t>IP Source</t>
   </si>
   <si>
-    <t>May 5, 2024 11:30:54</t>
-  </si>
-  <si>
-    <t>May 5, 2024 11:25:38</t>
-  </si>
-  <si>
-    <t>May 5, 2024 10:46:50</t>
-  </si>
-  <si>
-    <t>May 5, 2024 10:33:57</t>
-  </si>
-  <si>
-    <t>May 5, 2024 09:08:01</t>
-  </si>
-  <si>
-    <t>May 5, 2024 08:37:59</t>
-  </si>
-  <si>
-    <t>May 5, 2024 08:22:04</t>
+    <t>May 12, 2024 11:48:51</t>
+  </si>
+  <si>
+    <t>May 12, 2024 11:43:51</t>
+  </si>
+  <si>
+    <t>May 12, 2024 11:38:49</t>
+  </si>
+  <si>
+    <t>May 12, 2024 11:33:48</t>
+  </si>
+  <si>
+    <t>May 12, 2024 11:28:46</t>
+  </si>
+  <si>
+    <t>May 12, 2024 11:23:45</t>
+  </si>
+  <si>
+    <t>May 12, 2024 11:18:44</t>
+  </si>
+  <si>
+    <t>May 12, 2024 11:13:43</t>
+  </si>
+  <si>
+    <t>May 12, 2024 11:08:41</t>
   </si>
   <si>
     <t>Warning</t>
   </si>
   <si>
-    <t>Reconnaissance Detected: Computer OS Fingerprint Probe</t>
+    <t>Reconnaissance Detected: Network or Port Scan</t>
   </si>
   <si>
     <t>Agent</t>
   </si>
   <si>
-    <t>Sb2bserverRE-QA</t>
-  </si>
-  <si>
-    <t>DBserverRe-QA</t>
-  </si>
-  <si>
-    <t>AppserverRE-QA</t>
-  </si>
-  <si>
-    <t>AppserverRE</t>
+    <t>gsntpserver.gseguros.com.mx (10.1.1.234)</t>
   </si>
   <si>
     <t>System</t>
   </si>
   <si>
-    <t>hbp00424s-479</t>
-  </si>
-  <si>
-    <t>hbp00422s-479</t>
-  </si>
-  <si>
-    <t>hbp00423s-479</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to identify the computer operating system via a "fingerprint" probe. Check the Agent/Appliance Events to see the details of the probe.
+    <t>hb34s-488</t>
+  </si>
+  <si>
+    <t>hb30s-488</t>
+  </si>
+  <si>
+    <t>hb32s-488</t>
+  </si>
+  <si>
+    <t>hb26s-488</t>
+  </si>
+  <si>
+    <t>hb28s-488</t>
+  </si>
+  <si>
+    <t>hb25s-488</t>
+  </si>
+  <si>
+    <t>hb31s-488</t>
+  </si>
+  <si>
+    <t>hb37s-488</t>
+  </si>
+  <si>
+    <t>hb35s-488</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
 Agent/Appliance Event(s):
-Time: May 5, 2024 11:30:50
+Time: May 12, 2024 11:48:48
 Level: Warning
-Event ID: 7000
-Event: Computer OS Fingerprint Probe
-Description: The computer at IP address 128.199.181.4 attempted a "fingerprint" probe in order to identify the operating system.
-Traffic from IP 128.199.181.4 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to identify the computer operating system via a "fingerprint" probe. Check the Agent/Appliance Events to see the details of the probe.
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
 Agent/Appliance Event(s):
-Time: May 5, 2024 11:25:35
+Time: May 12, 2024 11:43:47
 Level: Warning
-Event ID: 7000
-Event: Computer OS Fingerprint Probe
-Description: The computer at IP address 176.101.13.5 attempted a "fingerprint" probe in order to identify the operating system.
-Traffic from IP 176.101.13.5 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to identify the computer operating system via a "fingerprint" probe. Check the Agent/Appliance Events to see the details of the probe.
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
 Agent/Appliance Event(s):
-Time: May 5, 2024 10:46:47
+Time: May 12, 2024 11:38:46
 Level: Warning
-Event ID: 7000
-Event: Computer OS Fingerprint Probe
-Description: The computer at IP address 128.199.181.4 attempted a "fingerprint" probe in order to identify the operating system.
-Traffic from IP 128.199.181.4 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to identify the computer operating system via a "fingerprint" probe. Check the Agent/Appliance Events to see the details of the probe.
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
 Agent/Appliance Event(s):
-Time: May 5, 2024 10:33:43
+Time: May 12, 2024 11:33:44
 Level: Warning
-Event ID: 7000
-Event: Computer OS Fingerprint Probe
-Description: The computer at IP address 122.227.97.162 attempted a "fingerprint" probe in order to identify the operating system.
-Traffic from IP 122.227.97.162 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to identify the computer operating system via a "fingerprint" probe. Check the Agent/Appliance Events to see the details of the probe.
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
 Agent/Appliance Event(s):
-Time: May 5, 2024 09:07:45
+Time: May 12, 2024 11:28:43
 Level: Warning
-Event ID: 7000
-Event: Computer OS Fingerprint Probe
-Description: The computer at IP address 122.227.97.162 attempted a "fingerprint" probe in order to identify the operating system.
-Traffic from IP 122.227.97.162 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to identify the computer operating system via a "fingerprint" probe. Check the Agent/Appliance Events to see the details of the probe.
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
 Agent/Appliance Event(s):
-Time: May 5, 2024 08:37:45
+Time: May 12, 2024 11:23:42
 Level: Warning
-Event ID: 7000
-Event: Computer OS Fingerprint Probe
-Description: The computer at IP address 176.101.13.5 attempted a "fingerprint" probe in order to identify the operating system.
-Traffic from IP 176.101.13.5 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to identify the computer operating system via a "fingerprint" probe. Check the Agent/Appliance Events to see the details of the probe.
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
 Agent/Appliance Event(s):
-Time: May 5, 2024 08:21:49
+Time: May 12, 2024 11:18:40
 Level: Warning
-Event ID: 7000
-Event: Computer OS Fingerprint Probe
-Description: The computer at IP address 128.199.181.4 attempted a "fingerprint" probe in order to identify the operating system.
-Traffic from IP 128.199.181.4 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>128.199.181.4</t>
-  </si>
-  <si>
-    <t>176.101.13.5</t>
-  </si>
-  <si>
-    <t>122.227.97.162</t>
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 12, 2024 11:13:39
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 12, 2024 11:08:38
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
+  </si>
+  <si>
+    <t>10.1.1.101</t>
   </si>
   <si>
     <t>Source IP</t>
@@ -212,73 +246,13 @@
   </si>
   <si>
     <t>Eventos:</t>
-  </si>
-  <si>
-    <t>countryName</t>
-  </si>
-  <si>
-    <t>stateProv</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>isp</t>
-  </si>
-  <si>
-    <t>threatLevel</t>
-  </si>
-  <si>
-    <t>threatDetails</t>
-  </si>
-  <si>
-    <t>isCrawler</t>
-  </si>
-  <si>
-    <t>isProxy</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Moscow</t>
-  </si>
-  <si>
-    <t>Zhejiang</t>
-  </si>
-  <si>
-    <t>Hangzhou Shi</t>
-  </si>
-  <si>
-    <t>PE Zinstein Hariton Vladimirovich</t>
-  </si>
-  <si>
-    <t>DigitalOcean, LLC</t>
-  </si>
-  <si>
-    <t>Chinanet</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>['attack-source', 'attack-target:web']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -353,19 +327,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -403,7 +386,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -437,6 +420,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -471,9 +455,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -646,14 +631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,228 +673,292 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>851</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>851</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -918,24 +967,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="56.7109375" customWidth="1"/>
+    <col min="8" max="8" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -946,258 +995,81 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E2" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="G8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="G9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="3">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G7"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Reporte_Puertos.xlsx
+++ b/Reporte_Puertos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dicofra1-my.sharepoint.com/personal/angel_liceaga_dicofra_com_mx/Documents/Documentos/Progra/CSOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_FA4F01671C5074413C7F6329EE463D6DB9B8A617" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B5B6534-27B6-4C82-9142-13C7AAFB7B5C}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_C7DF617A68B0F25E2E2D7F2DF6BB3D6E9DB459E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAE6051B-E30E-4A86-9CF6-E49115A5169E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Reporte Network" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
   <si>
     <t>Time</t>
   </si>
@@ -56,31 +69,61 @@
     <t>IP Source</t>
   </si>
   <si>
-    <t>May 12, 2024 11:48:51</t>
-  </si>
-  <si>
-    <t>May 12, 2024 11:43:51</t>
-  </si>
-  <si>
-    <t>May 12, 2024 11:38:49</t>
-  </si>
-  <si>
-    <t>May 12, 2024 11:33:48</t>
-  </si>
-  <si>
-    <t>May 12, 2024 11:28:46</t>
-  </si>
-  <si>
-    <t>May 12, 2024 11:23:45</t>
-  </si>
-  <si>
-    <t>May 12, 2024 11:18:44</t>
-  </si>
-  <si>
-    <t>May 12, 2024 11:13:43</t>
-  </si>
-  <si>
-    <t>May 12, 2024 11:08:41</t>
+    <t>May 25, 2024 14:28:33</t>
+  </si>
+  <si>
+    <t>May 25, 2024 13:50:27</t>
+  </si>
+  <si>
+    <t>May 25, 2024 13:20:18</t>
+  </si>
+  <si>
+    <t>May 25, 2024 13:11:05</t>
+  </si>
+  <si>
+    <t>May 25, 2024 12:33:19</t>
+  </si>
+  <si>
+    <t>May 25, 2024 11:59:56</t>
+  </si>
+  <si>
+    <t>May 25, 2024 11:23:36</t>
+  </si>
+  <si>
+    <t>May 25, 2024 11:16:44</t>
+  </si>
+  <si>
+    <t>May 25, 2024 11:06:52</t>
+  </si>
+  <si>
+    <t>May 25, 2024 10:50:53</t>
+  </si>
+  <si>
+    <t>May 25, 2024 10:14:05</t>
+  </si>
+  <si>
+    <t>May 25, 2024 09:46:34</t>
+  </si>
+  <si>
+    <t>May 25, 2024 09:37:35</t>
+  </si>
+  <si>
+    <t>May 25, 2024 09:09:09</t>
+  </si>
+  <si>
+    <t>May 25, 2024 09:04:28</t>
+  </si>
+  <si>
+    <t>May 25, 2024 08:23:25</t>
+  </si>
+  <si>
+    <t>May 25, 2024 07:45:36</t>
+  </si>
+  <si>
+    <t>May 25, 2024 07:16:52</t>
+  </si>
+  <si>
+    <t>May 25, 2024 07:09:53</t>
   </si>
   <si>
     <t>Warning</t>
@@ -92,130 +135,221 @@
     <t>Agent</t>
   </si>
   <si>
-    <t>gsntpserver.gseguros.com.mx (10.1.1.234)</t>
+    <t>GDLNVR7</t>
+  </si>
+  <si>
+    <t>PVR-WIN-NAS</t>
   </si>
   <si>
     <t>System</t>
   </si>
   <si>
-    <t>hb34s-488</t>
-  </si>
-  <si>
-    <t>hb30s-488</t>
-  </si>
-  <si>
-    <t>hb32s-488</t>
-  </si>
-  <si>
-    <t>hb26s-488</t>
-  </si>
-  <si>
-    <t>hb28s-488</t>
-  </si>
-  <si>
-    <t>hb25s-488</t>
-  </si>
-  <si>
-    <t>hb31s-488</t>
-  </si>
-  <si>
-    <t>hb37s-488</t>
-  </si>
-  <si>
-    <t>hb35s-488</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 12, 2024 11:48:48
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 12, 2024 11:43:47
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 12, 2024 11:38:46
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 12, 2024 11:33:44
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 12, 2024 11:28:43
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 12, 2024 11:23:42
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 12, 2024 11:18:40
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 12, 2024 11:13:39
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 12, 2024 11:08:38
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.1.1.101 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.1.1.101 is not being automatically blocked.</t>
-  </si>
-  <si>
-    <t>10.1.1.101</t>
+    <t>10.255.130.184</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 14:28:32
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 13:50:25
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 13:08:59
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.219.200.11 is performing a computer or network scan. It has scanned or attempted to scan a total of 19 computers.
+Traffic from IP 10.219.200.11 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 13:11:04
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 12:33:18
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 11:59:55
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 11:23:34
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 11:05:25
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.219.200.11 is performing a computer or network scan. It has scanned or attempted to scan a total of 20 computers.
+Traffic from IP 10.219.200.11 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 10:55:33
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.219.200.12 is performing a computer or network scan. It has scanned or attempted to scan a total of 16 computers.
+Traffic from IP 10.219.200.12 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 10:50:51
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 10:14:04
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 09:35:15
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.219.200.11 is performing a computer or network scan. It has scanned or attempted to scan a total of 24 computers.
+Traffic from IP 10.219.200.11 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 09:37:34
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 09:09:08
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 199.232.194.2 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 199.232.194.2 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 09:04:27
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 08:23:24
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 07:45:35
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 07:16:51
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.223.127.11 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.223.127.11 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
+Agent/Appliance Event(s):
+Time: May 25, 2024 07:09:52
+Level: Warning
+Event ID: 7001
+Event: Network or Port Scan
+Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
+Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>10.223.200.13</t>
+  </si>
+  <si>
+    <t>10.219.200.11</t>
+  </si>
+  <si>
+    <t>10.219.200.12</t>
+  </si>
+  <si>
+    <t>199.232.194.2</t>
+  </si>
+  <si>
+    <t>10.223.127.11</t>
   </si>
   <si>
     <t>Source IP</t>
@@ -246,6 +380,21 @@
   </si>
   <si>
     <t>Eventos:</t>
+  </si>
+  <si>
+    <t>10[.]223[.]127[.]11</t>
+  </si>
+  <si>
+    <t>10[.]223[.]200[.]13</t>
+  </si>
+  <si>
+    <t>199[.]232[.]194[.]2</t>
+  </si>
+  <si>
+    <t>10[.]219[.]200[.]11</t>
+  </si>
+  <si>
+    <t>10[.]219[.]200[.]12</t>
   </si>
 </sst>
 </file>
@@ -318,12 +467,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,7 +784,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -678,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>851</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -710,31 +862,31 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>851</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -742,31 +894,31 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>851</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -774,31 +926,31 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>851</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -806,31 +958,31 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>851</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -838,31 +990,31 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>851</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -870,31 +1022,31 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>851</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -902,31 +1054,31 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>851</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -934,31 +1086,351 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>851</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
-        <v>851</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>851</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>851</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>851</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="H10" t="s">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>851</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="I10" t="s">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>851</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" t="s">
-        <v>43</v>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>851</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>851</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>851</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>851</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>851</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -968,20 +1440,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -995,80 +1469,154 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E2" s="3">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="D3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="3">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="3" t="s">
-        <v>52</v>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="3">
-        <v>9</v>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="4"/>
+      <c r="H8" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="3">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:D3"/>
+  <mergeCells count="7">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reporte_Puertos.xlsx
+++ b/Reporte_Puertos.xlsx
@@ -1,40 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dicofra1-my.sharepoint.com/personal/angel_liceaga_dicofra_com_mx/Documents/Documentos/Progra/CSOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_C7DF617A68B0F25E2E2D7F2DF6BB3D6E9DB459E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAE6051B-E30E-4A86-9CF6-E49115A5169E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_817DC1742D683239FA3EF1C3EEADB0BA24B10F4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8443160B-6989-42EA-84E3-13F48B5FC545}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4830" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Reporte Network" sheetId="2" r:id="rId2"/>
+    <sheet name="Reporte SYNFIN" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="113">
   <si>
     <t>Time</t>
   </si>
@@ -69,287 +56,518 @@
     <t>IP Source</t>
   </si>
   <si>
-    <t>May 25, 2024 14:28:33</t>
-  </si>
-  <si>
-    <t>May 25, 2024 13:50:27</t>
-  </si>
-  <si>
-    <t>May 25, 2024 13:20:18</t>
-  </si>
-  <si>
-    <t>May 25, 2024 13:11:05</t>
-  </si>
-  <si>
-    <t>May 25, 2024 12:33:19</t>
-  </si>
-  <si>
-    <t>May 25, 2024 11:59:56</t>
-  </si>
-  <si>
-    <t>May 25, 2024 11:23:36</t>
-  </si>
-  <si>
-    <t>May 25, 2024 11:16:44</t>
-  </si>
-  <si>
-    <t>May 25, 2024 11:06:52</t>
-  </si>
-  <si>
-    <t>May 25, 2024 10:50:53</t>
-  </si>
-  <si>
-    <t>May 25, 2024 10:14:05</t>
-  </si>
-  <si>
-    <t>May 25, 2024 09:46:34</t>
-  </si>
-  <si>
-    <t>May 25, 2024 09:37:35</t>
-  </si>
-  <si>
-    <t>May 25, 2024 09:09:09</t>
-  </si>
-  <si>
-    <t>May 25, 2024 09:04:28</t>
-  </si>
-  <si>
-    <t>May 25, 2024 08:23:25</t>
-  </si>
-  <si>
-    <t>May 25, 2024 07:45:36</t>
-  </si>
-  <si>
-    <t>May 25, 2024 07:16:52</t>
-  </si>
-  <si>
-    <t>May 25, 2024 07:09:53</t>
+    <t>December 26, 2024 08:49:09</t>
+  </si>
+  <si>
+    <t>December 26, 2024 07:57:40</t>
+  </si>
+  <si>
+    <t>December 26, 2024 07:55:27</t>
+  </si>
+  <si>
+    <t>December 26, 2024 06:48:37</t>
+  </si>
+  <si>
+    <t>December 26, 2024 06:35:15</t>
+  </si>
+  <si>
+    <t>December 26, 2024 06:14:01</t>
+  </si>
+  <si>
+    <t>December 26, 2024 05:11:05</t>
+  </si>
+  <si>
+    <t>December 26, 2024 03:01:51</t>
+  </si>
+  <si>
+    <t>December 26, 2024 02:31:37</t>
+  </si>
+  <si>
+    <t>December 26, 2024 01:30:36</t>
+  </si>
+  <si>
+    <t>December 26, 2024 01:10:05</t>
+  </si>
+  <si>
+    <t>December 26, 2024 00:03:17</t>
+  </si>
+  <si>
+    <t>December 25, 2024 23:48:20</t>
+  </si>
+  <si>
+    <t>December 25, 2024 23:25:04</t>
+  </si>
+  <si>
+    <t>December 25, 2024 19:45:08</t>
+  </si>
+  <si>
+    <t>December 25, 2024 19:34:09</t>
+  </si>
+  <si>
+    <t>December 25, 2024 19:32:14</t>
+  </si>
+  <si>
+    <t>December 25, 2024 19:07:00</t>
+  </si>
+  <si>
+    <t>December 25, 2024 14:21:13</t>
+  </si>
+  <si>
+    <t>December 25, 2024 12:54:48</t>
+  </si>
+  <si>
+    <t>December 25, 2024 11:25:55</t>
+  </si>
+  <si>
+    <t>December 25, 2024 10:42:59</t>
+  </si>
+  <si>
+    <t>December 25, 2024 10:23:20</t>
+  </si>
+  <si>
+    <t>December 25, 2024 09:50:35</t>
+  </si>
+  <si>
+    <t>December 25, 2024 09:29:49</t>
+  </si>
+  <si>
+    <t>December 25, 2024 07:39:48</t>
+  </si>
+  <si>
+    <t>December 25, 2024 07:26:58</t>
+  </si>
+  <si>
+    <t>December 25, 2024 07:09:27</t>
+  </si>
+  <si>
+    <t>December 25, 2024 06:33:55</t>
+  </si>
+  <si>
+    <t>December 25, 2024 05:28:32</t>
+  </si>
+  <si>
+    <t>December 25, 2024 04:55:18</t>
+  </si>
+  <si>
+    <t>December 25, 2024 04:50:14</t>
+  </si>
+  <si>
+    <t>December 25, 2024 03:55:22</t>
+  </si>
+  <si>
+    <t>December 25, 2024 02:06:59</t>
   </si>
   <si>
     <t>Warning</t>
   </si>
   <si>
-    <t>Reconnaissance Detected: Network or Port Scan</t>
+    <t>Reconnaissance Detected: TCP SYNFIN Scan</t>
   </si>
   <si>
     <t>Agent</t>
   </si>
   <si>
-    <t>GDLNVR7</t>
-  </si>
-  <si>
-    <t>PVR-WIN-NAS</t>
+    <t>Sb2bSrvRecibo</t>
+  </si>
+  <si>
+    <t>Sb2bserverRE-QA</t>
+  </si>
+  <si>
+    <t>DbserverRecibo</t>
+  </si>
+  <si>
+    <t>DEV-002-Sb2bi</t>
+  </si>
+  <si>
+    <t>AppserverRE</t>
+  </si>
+  <si>
+    <t>srvamsprodad01.ams.local</t>
+  </si>
+  <si>
+    <t>SMTPSERVERENL.ams.local</t>
+  </si>
+  <si>
+    <t>appserverDev</t>
+  </si>
+  <si>
+    <t>DbserverDev</t>
+  </si>
+  <si>
+    <t>smtpserverhs.ams.local</t>
+  </si>
+  <si>
+    <t>SMTPSVRCFDINET.ams.local</t>
+  </si>
+  <si>
+    <t>AppserverRE-QA</t>
+  </si>
+  <si>
+    <t>srvhsprdblue03.HUMANSITE.INT</t>
   </si>
   <si>
     <t>System</t>
   </si>
   <si>
-    <t>10.255.130.184</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 14:28:32
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 13:50:25
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 13:08:59
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.219.200.11 is performing a computer or network scan. It has scanned or attempted to scan a total of 19 computers.
-Traffic from IP 10.219.200.11 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 13:11:04
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 12:33:18
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 11:59:55
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 11:23:34
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 11:05:25
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.219.200.11 is performing a computer or network scan. It has scanned or attempted to scan a total of 20 computers.
-Traffic from IP 10.219.200.11 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 10:55:33
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.219.200.12 is performing a computer or network scan. It has scanned or attempted to scan a total of 16 computers.
-Traffic from IP 10.219.200.12 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 10:50:51
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 10:14:04
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 09:35:15
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.219.200.11 is performing a computer or network scan. It has scanned or attempted to scan a total of 24 computers.
-Traffic from IP 10.219.200.11 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 09:37:34
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 09:09:08
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 199.232.194.2 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 199.232.194.2 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 09:04:27
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 08:23:24
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 07:45:35
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 07:16:51
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.223.127.11 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.223.127.11 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>The Agent/Appliance detected an attempt to scan a computer or a network. Check the Agent/Appliance Events to see the details of the scan.
-Agent/Appliance Event(s):
-Time: May 25, 2024 07:09:52
-Level: Warning
-Event ID: 7001
-Event: Network or Port Scan
-Description: The computer at IP address 10.223.200.13 is performing a computer or network scan. It has scanned or attempted to scan a total of one computer.
-Traffic from IP 10.223.200.13 is being automatically blocked for 1,800 seconds.</t>
-  </si>
-  <si>
-    <t>10.223.200.13</t>
-  </si>
-  <si>
-    <t>10.219.200.11</t>
-  </si>
-  <si>
-    <t>10.219.200.12</t>
-  </si>
-  <si>
-    <t>199.232.194.2</t>
-  </si>
-  <si>
-    <t>10.223.127.11</t>
+    <t>hbp00422s-714</t>
+  </si>
+  <si>
+    <t>hbp00424s-714</t>
+  </si>
+  <si>
+    <t>hbp00423s-714</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 26, 2024 08:49:06
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 14.136.23.194 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 14.136.23.194 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 26, 2024 07:57:36
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 1.174.20.156 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 1.174.20.156 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 26, 2024 07:55:22
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 1.34.85.243 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 1.34.85.243 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 26, 2024 06:48:34
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 220.133.92.196 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 220.133.92.196 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 26, 2024 06:35:12
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 220.133.92.196 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 220.133.92.196 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 26, 2024 06:13:47
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 220.133.92.196 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 220.133.92.196 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 26, 2024 05:11:02
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 220.133.92.196 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 220.133.92.196 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 26, 2024 03:01:48
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 220.133.92.196 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 220.133.92.196 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 26, 2024 02:31:34
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 1.174.20.156 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 1.174.20.156 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 26, 2024 01:30:13
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 1.34.85.243 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 1.34.85.243 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 26, 2024 01:10:02
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 1.174.20.156 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 1.174.20.156 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 26, 2024 00:03:14
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 1.34.85.243 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 1.34.85.243 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 23:48:18
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 220.133.92.196 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 220.133.92.196 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 23:24:49
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 14.136.23.194 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 14.136.23.194 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 19:44:44
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 1.174.20.156 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 1.174.20.156 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 19:34:06
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 1.34.85.243 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 1.34.85.243 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 19:32:12
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 220.133.92.196 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 220.133.92.196 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 19:06:58
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 1.34.85.243 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 1.34.85.243 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 14:21:10
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 14.136.23.194 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 14.136.23.194 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 12:54:44
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 1.174.20.156 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 1.174.20.156 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 11:25:52
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 220.133.92.196 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 220.133.92.196 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 10:42:56
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 220.133.92.196 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 220.133.92.196 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 10:22:57
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 1.174.20.156 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 1.174.20.156 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 09:50:33
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 220.133.92.196 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 220.133.92.196 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 09:29:34
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 1.174.20.156 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 1.174.20.156 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 07:39:46
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 14.136.23.194 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 14.136.23.194 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 07:26:44
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 14.136.23.194 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 14.136.23.194 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 07:10:10
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 14.136.23.194 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 14.136.23.194 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 06:33:32
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 220.133.92.196 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 220.133.92.196 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 05:29:05
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 1.174.20.156 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 1.174.20.156 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 04:55:04
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 220.133.92.196 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 220.133.92.196 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 04:50:10
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 1.34.85.243 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 1.34.85.243 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 03:55:19
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 14.136.23.194 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 14.136.23.194 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>The Agent/Appliance detected a TCP "SYNFIN" port scan attempt. Check the Agent/Appliance Events to see the details of the port scan.
+Agent/Appliance Event(s):
+Time: December 25, 2024 02:06:49
+Level: Warning
+Event ID: 7003
+Event: TCP SYNFIN Scan
+Description: The computer at IP address 14.136.23.194 sent a packet with both the "SYN" and "FIN" TCP flags set - an illegal combination. This almost always means it is performing a "FIN" scan to determine which ports are open.
+Traffic from IP 14.136.23.194 is being automatically blocked for 1,800 seconds.</t>
+  </si>
+  <si>
+    <t>14.136.23.194</t>
+  </si>
+  <si>
+    <t>1.174.20.156</t>
+  </si>
+  <si>
+    <t>1.34.85.243</t>
+  </si>
+  <si>
+    <t>220.133.92.196</t>
   </si>
   <si>
     <t>Source IP</t>
@@ -380,21 +598,6 @@
   </si>
   <si>
     <t>Eventos:</t>
-  </si>
-  <si>
-    <t>10[.]223[.]127[.]11</t>
-  </si>
-  <si>
-    <t>10[.]223[.]200[.]13</t>
-  </si>
-  <si>
-    <t>199[.]232[.]194[.]2</t>
-  </si>
-  <si>
-    <t>10[.]219[.]200[.]11</t>
-  </si>
-  <si>
-    <t>10[.]219[.]200[.]12</t>
   </si>
 </sst>
 </file>
@@ -784,11 +987,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -830,31 +1038,31 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -862,31 +1070,31 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -894,31 +1102,31 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -926,31 +1134,31 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -958,31 +1166,31 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -990,31 +1198,31 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1022,31 +1230,31 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1054,31 +1262,31 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C9">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1086,31 +1294,31 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1118,31 +1326,31 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1150,31 +1358,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C12">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1182,31 +1390,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C13">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1214,31 +1422,31 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C14">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1246,31 +1454,31 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1278,31 +1486,31 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C16">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1310,31 +1518,31 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C17">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1342,31 +1550,31 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C18">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1374,31 +1582,31 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C19">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1406,31 +1614,511 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>853</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="C20">
-        <v>851</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>853</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="F20" t="s">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>853</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="G20" t="s">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>853</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="H20" t="s">
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>853</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>853</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="I20" t="s">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>853</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="J20" t="s">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>853</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>853</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>853</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30">
+        <v>853</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>853</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>853</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>853</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
         <v>55</v>
       </c>
-      <c r="K20" t="s">
-        <v>56</v>
+      <c r="H33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>853</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" t="s">
+        <v>97</v>
+      </c>
+      <c r="K34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>853</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" t="s">
+        <v>98</v>
+      </c>
+      <c r="K35" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1440,22 +2128,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="47.7109375" customWidth="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1469,42 +2157,42 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1512,111 +2200,394 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E3" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2">
-        <v>19</v>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G9" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="3">
-        <v>19</v>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:D7"/>
+  <mergeCells count="14">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="G2:G14"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="B2:B26"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
